--- a/src/test/resources/defects/Defects.xlsx
+++ b/src/test/resources/defects/Defects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bdc35798bb2dfa9/Desktop/JAVA Projects/MyProject/src/test/resources/Defects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\JAVA Projects\MyProject_Android_Automation\src\test\resources\defects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6FA4224B-74D1-4AEA-A21A-38319F3931A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7A5066-2ABF-4ACD-A99A-B80EC126F128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{777E0B5F-4973-4A7B-9BF8-A7191F0332BB}"/>
   </bookViews>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6">
-        <v>45207</v>
+        <v>45231</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1640,7 +1640,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="6">
-        <v>45212</v>
+        <v>45231</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
